--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="계산서 보고" sheetId="26" r:id="rId1"/>
@@ -1832,10 +1832,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2019년 02월 조합 사용 현황</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1929,6 +1925,10 @@
   </si>
   <si>
     <t>북부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4906,8 +4906,8 @@
   </sheetPr>
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4929,7 +4929,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" thickBot="1">
       <c r="A1" s="493" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="B1" s="493"/>
       <c r="G1" s="73"/>
@@ -5017,7 +5017,7 @@
       <c r="H4" s="210"/>
       <c r="I4" s="212"/>
       <c r="J4" s="327">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="210"/>
       <c r="L4" s="209">
@@ -5072,7 +5072,7 @@
         <v>139</v>
       </c>
       <c r="B6" s="281" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="54"/>
@@ -5118,7 +5118,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="101"/>
       <c r="D8" s="54"/>
@@ -5139,7 +5139,7 @@
     <row r="9" spans="1:14" ht="17.25" thickBot="1">
       <c r="A9" s="311"/>
       <c r="B9" s="284" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="256"/>
       <c r="D9" s="55"/>
@@ -5195,7 +5195,7 @@
         <v>175</v>
       </c>
       <c r="B11" s="281" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" s="332"/>
       <c r="D11" s="333"/>
@@ -5229,7 +5229,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="281" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="332"/>
       <c r="D12" s="333"/>
@@ -5257,7 +5257,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="331"/>
       <c r="B13" s="286" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" s="332"/>
       <c r="D13" s="333"/>
@@ -5275,7 +5275,7 @@
     <row r="14" spans="1:14" ht="17.25" thickBot="1">
       <c r="A14" s="335"/>
       <c r="B14" s="286" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="336"/>
       <c r="D14" s="337"/>
@@ -5353,7 +5353,7 @@
     <row r="17" spans="1:14" ht="17.25" thickBot="1">
       <c r="A17" s="311"/>
       <c r="B17" s="284" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="103"/>
       <c r="D17" s="60"/>
@@ -5581,7 +5581,7 @@
     <row r="25" spans="1:14" ht="17.25" thickBot="1">
       <c r="A25" s="311"/>
       <c r="B25" s="284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="103"/>
       <c r="D25" s="60"/>
@@ -5777,7 +5777,7 @@
         <v>228</v>
       </c>
       <c r="B31" s="281" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" s="111"/>
       <c r="D31" s="64"/>
@@ -5797,7 +5797,7 @@
     <row r="32" spans="1:14" ht="17.25" thickBot="1">
       <c r="A32" s="311"/>
       <c r="B32" s="284" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" s="103"/>
       <c r="D32" s="60"/>
@@ -5845,7 +5845,7 @@
         <v>152</v>
       </c>
       <c r="B34" s="455" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" s="256"/>
       <c r="D34" s="63"/>
@@ -5915,7 +5915,7 @@
         <v>153</v>
       </c>
       <c r="B36" s="281" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="102"/>
       <c r="D36" s="57"/>
@@ -5941,7 +5941,7 @@
     <row r="37" spans="1:14">
       <c r="A37" s="308"/>
       <c r="B37" s="286" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" s="101"/>
       <c r="D37" s="339"/>
@@ -5959,7 +5959,7 @@
     <row r="38" spans="1:14" ht="17.25" thickBot="1">
       <c r="A38" s="311"/>
       <c r="B38" s="284" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C38" s="103"/>
       <c r="D38" s="60"/>
@@ -6101,7 +6101,7 @@
     <row r="43" spans="1:14" ht="17.25" thickBot="1">
       <c r="A43" s="308"/>
       <c r="B43" s="286" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" s="101"/>
       <c r="D43" s="339"/>
@@ -6159,7 +6159,7 @@
         <v>155</v>
       </c>
       <c r="B45" s="455" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" s="103"/>
       <c r="D45" s="60"/>
@@ -6387,7 +6387,7 @@
         <v>158</v>
       </c>
       <c r="B53" s="281" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" s="102"/>
       <c r="D53" s="57"/>
@@ -6413,7 +6413,7 @@
         <v>159</v>
       </c>
       <c r="B54" s="282" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="58"/>
@@ -6616,7 +6616,7 @@
         <v>165</v>
       </c>
       <c r="B62" s="281" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C62" s="102">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>166</v>
       </c>
       <c r="B63" s="281" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C63" s="102">
         <v>150000</v>
@@ -6991,7 +6991,7 @@
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K74" s="246"/>
       <c r="L74" s="244"/>
@@ -7020,7 +7020,7 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
       <selection pane="topRight" activeCell="G25" sqref="G25"/>
@@ -7065,14 +7065,14 @@
     <row r="1" spans="1:35" ht="33" customHeight="1">
       <c r="G1" s="73"/>
       <c r="N1" s="199" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V1" s="199"/>
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="478" customFormat="1" ht="12.75" thickBot="1">
       <c r="A2" s="476" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="477"/>
       <c r="S2" s="304"/>
@@ -7385,7 +7385,7 @@
         <v>139</v>
       </c>
       <c r="B7" s="281" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="101"/>
       <c r="D7" s="54"/>
@@ -7410,7 +7410,7 @@
         <v>139</v>
       </c>
       <c r="T7" s="281" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U7" s="48"/>
       <c r="V7" s="75"/>
@@ -7487,7 +7487,7 @@
         <v>141</v>
       </c>
       <c r="B9" s="282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="111"/>
       <c r="D9" s="65"/>
@@ -7512,7 +7512,7 @@
         <v>141</v>
       </c>
       <c r="T9" s="282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U9" s="113"/>
       <c r="V9" s="231"/>
@@ -7709,7 +7709,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="455" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="60"/>
@@ -7750,7 +7750,7 @@
         <v>143</v>
       </c>
       <c r="T12" s="455" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U12" s="46">
         <v>30</v>
@@ -8971,7 +8971,7 @@
         <v>153</v>
       </c>
       <c r="B30" s="282" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" s="131"/>
       <c r="D30" s="58"/>
@@ -8995,7 +8995,7 @@
         <v>153</v>
       </c>
       <c r="T30" s="282" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U30" s="132"/>
       <c r="V30" s="157"/>
@@ -9362,7 +9362,7 @@
         <v>155</v>
       </c>
       <c r="B36" s="282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="131"/>
       <c r="D36" s="58"/>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="42" spans="1:33" s="478" customFormat="1" ht="12.75" thickBot="1">
       <c r="A42" s="476" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="477"/>
       <c r="S42" s="304"/>
@@ -9867,7 +9867,7 @@
         <v>158</v>
       </c>
       <c r="B45" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="102"/>
       <c r="D45" s="57"/>
@@ -9898,7 +9898,7 @@
         <v>158</v>
       </c>
       <c r="T45" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U45" s="45"/>
       <c r="V45" s="78"/>
@@ -9921,7 +9921,7 @@
         <v>159</v>
       </c>
       <c r="B46" s="282" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" s="131"/>
       <c r="D46" s="58"/>
@@ -9952,7 +9952,7 @@
         <v>159</v>
       </c>
       <c r="T46" s="282" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U46" s="132"/>
       <c r="V46" s="157"/>
@@ -10358,7 +10358,7 @@
         <v>165</v>
       </c>
       <c r="B54" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C54" s="102">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>165</v>
       </c>
       <c r="T54" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U54" s="45"/>
       <c r="V54" s="78"/>
@@ -10424,7 +10424,7 @@
         <v>166</v>
       </c>
       <c r="B55" s="281" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="102">
         <v>150000</v>
@@ -10465,7 +10465,7 @@
         <v>166</v>
       </c>
       <c r="T55" s="281" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="78"/>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="2" spans="1:35" s="478" customFormat="1" ht="12.75" thickBot="1">
       <c r="A2" s="476" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="477"/>
       <c r="S2" s="304"/>
@@ -11556,7 +11556,7 @@
         <v>139</v>
       </c>
       <c r="B7" s="281" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="101"/>
       <c r="D7" s="54"/>
@@ -11581,7 +11581,7 @@
         <v>139</v>
       </c>
       <c r="T7" s="281" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U7" s="48"/>
       <c r="V7" s="75"/>
@@ -11658,7 +11658,7 @@
         <v>141</v>
       </c>
       <c r="B9" s="282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="111"/>
       <c r="D9" s="65"/>
@@ -11683,7 +11683,7 @@
         <v>141</v>
       </c>
       <c r="T9" s="282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U9" s="48"/>
       <c r="V9" s="75"/>
@@ -11880,7 +11880,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="455" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="60"/>
@@ -11921,7 +11921,7 @@
         <v>143</v>
       </c>
       <c r="T12" s="455" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U12" s="390">
         <v>29</v>
@@ -13116,7 +13116,7 @@
         <v>153</v>
       </c>
       <c r="B30" s="282" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" s="131"/>
       <c r="D30" s="58"/>
@@ -13140,7 +13140,7 @@
         <v>153</v>
       </c>
       <c r="T30" s="282" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U30" s="45"/>
       <c r="V30" s="78"/>
@@ -13507,7 +13507,7 @@
         <v>155</v>
       </c>
       <c r="B36" s="282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="131"/>
       <c r="D36" s="58"/>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="42" spans="1:33" s="478" customFormat="1" ht="12.75" thickBot="1">
       <c r="A42" s="476" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="477"/>
       <c r="S42" s="304"/>
@@ -14012,7 +14012,7 @@
         <v>158</v>
       </c>
       <c r="B45" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="102"/>
       <c r="D45" s="57"/>
@@ -14043,7 +14043,7 @@
         <v>158</v>
       </c>
       <c r="T45" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U45" s="45"/>
       <c r="V45" s="78"/>
@@ -14066,7 +14066,7 @@
         <v>159</v>
       </c>
       <c r="B46" s="282" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" s="131"/>
       <c r="D46" s="58"/>
@@ -14097,7 +14097,7 @@
         <v>159</v>
       </c>
       <c r="T46" s="282" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U46" s="132"/>
       <c r="V46" s="157"/>
@@ -14503,7 +14503,7 @@
         <v>165</v>
       </c>
       <c r="B54" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C54" s="102">
         <v>0</v>
@@ -14546,7 +14546,7 @@
         <v>165</v>
       </c>
       <c r="T54" s="281" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U54" s="45"/>
       <c r="V54" s="78"/>
@@ -14569,7 +14569,7 @@
         <v>166</v>
       </c>
       <c r="B55" s="281" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="102">
         <v>150000</v>
@@ -14610,7 +14610,7 @@
         <v>166</v>
       </c>
       <c r="T55" s="281" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="78"/>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -28,6 +28,126 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hana</author>
+  </authors>
+  <commentList>
+    <comment ref="F33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2019</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>년</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>월부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>년납으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (10%DC)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hana</author>
@@ -693,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="258">
   <si>
     <t>조합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1928,8 +2048,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4월</t>
+    <t>5월</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년 4월부터 년발행으로 변경 10% DC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램사용료 25+서버임대료5 = 30만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월까지 선납</t>
   </si>
 </sst>
 </file>
@@ -4904,10 +5035,10 @@
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection sqref="A1:N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5336,7 +5467,7 @@
       <c r="H16" s="77"/>
       <c r="I16" s="179"/>
       <c r="J16" s="45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="77"/>
       <c r="L16" s="57">
@@ -5818,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:17">
       <c r="A33" s="310" t="s">
         <v>16</v>
       </c>
@@ -5840,7 +5971,7 @@
       <c r="M33" s="59"/>
       <c r="N33" s="123"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25" thickBot="1">
+    <row r="34" spans="1:17" ht="17.25" thickBot="1">
       <c r="A34" s="311" t="s">
         <v>152</v>
       </c>
@@ -5872,7 +6003,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:17">
       <c r="A35" s="310" t="s">
         <v>18</v>
       </c>
@@ -5910,7 +6041,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:17">
       <c r="A36" s="308" t="s">
         <v>153</v>
       </c>
@@ -5938,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:17">
       <c r="A37" s="308"/>
       <c r="B37" s="286" t="s">
         <v>242</v>
@@ -5956,7 +6087,7 @@
       <c r="M37" s="57"/>
       <c r="N37" s="107"/>
     </row>
-    <row r="38" spans="1:14" ht="17.25" thickBot="1">
+    <row r="38" spans="1:17" ht="17.25" thickBot="1">
       <c r="A38" s="311"/>
       <c r="B38" s="284" t="s">
         <v>248</v>
@@ -5980,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:17">
       <c r="A39" s="310" t="s">
         <v>20</v>
       </c>
@@ -6002,7 +6133,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="176"/>
       <c r="J39" s="122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="59"/>
@@ -6011,7 +6142,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="17.25" thickBot="1">
+    <row r="40" spans="1:17" ht="17.25" thickBot="1">
       <c r="A40" s="308" t="s">
         <v>154</v>
       </c>
@@ -6021,10 +6152,7 @@
       <c r="C40" s="341"/>
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
-      <c r="F40" s="346">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F40" s="346"/>
       <c r="G40" s="356"/>
       <c r="H40" s="4"/>
       <c r="I40" s="174"/>
@@ -6034,7 +6162,7 @@
       <c r="M40" s="57"/>
       <c r="N40" s="107"/>
     </row>
-    <row r="41" spans="1:14" ht="17.25" thickBot="1">
+    <row r="41" spans="1:17" ht="17.25" thickBot="1">
       <c r="A41" s="306" t="s">
         <v>22</v>
       </c>
@@ -6042,15 +6170,14 @@
         <v>23</v>
       </c>
       <c r="C41" s="149">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="52">
-        <v>50000</v>
-      </c>
-      <c r="F41" s="357">
-        <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>0</v>
+      </c>
+      <c r="F41" s="357" t="s">
+        <v>257</v>
       </c>
       <c r="G41" s="357"/>
       <c r="H41" s="36">
@@ -6066,8 +6193,14 @@
       <c r="N41" s="130">
         <v>50000</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="P41" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="312" t="s">
         <v>24</v>
       </c>
@@ -6098,7 +6231,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="17.25" thickBot="1">
+    <row r="43" spans="1:17" ht="17.25" thickBot="1">
       <c r="A43" s="308"/>
       <c r="B43" s="286" t="s">
         <v>241</v>
@@ -6122,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:17">
       <c r="A44" s="310" t="s">
         <v>26</v>
       </c>
@@ -6154,7 +6287,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="17.25" thickBot="1">
+    <row r="45" spans="1:17" ht="17.25" thickBot="1">
       <c r="A45" s="311" t="s">
         <v>155</v>
       </c>
@@ -6180,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="17.25" thickBot="1">
+    <row r="46" spans="1:17" ht="17.25" thickBot="1">
       <c r="A46" s="305" t="s">
         <v>28</v>
       </c>
@@ -6213,7 +6346,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="17.25" thickBot="1">
+    <row r="47" spans="1:17" ht="17.25" thickBot="1">
       <c r="A47" s="306" t="s">
         <v>30</v>
       </c>
@@ -6247,7 +6380,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="17.25" thickBot="1">
+    <row r="48" spans="1:17" ht="17.25" thickBot="1">
       <c r="A48" s="312" t="s">
         <v>32</v>
       </c>
@@ -6376,11 +6509,15 @@
       <c r="G52" s="350"/>
       <c r="H52" s="77"/>
       <c r="I52" s="179"/>
-      <c r="J52" s="45"/>
+      <c r="J52" s="45">
+        <v>11</v>
+      </c>
       <c r="K52" s="77"/>
       <c r="L52" s="57"/>
       <c r="M52" s="57"/>
-      <c r="N52" s="107"/>
+      <c r="N52" s="107">
+        <v>30000</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="308" t="s">
@@ -6399,13 +6536,14 @@
       <c r="G53" s="350"/>
       <c r="H53" s="77"/>
       <c r="I53" s="179"/>
-      <c r="J53" s="45"/>
+      <c r="J53" s="45">
+        <v>13</v>
+      </c>
       <c r="K53" s="77"/>
       <c r="L53" s="57"/>
       <c r="M53" s="57"/>
       <c r="N53" s="107">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17.25" thickBot="1">
@@ -6425,13 +6563,14 @@
       <c r="G54" s="353"/>
       <c r="H54" s="133"/>
       <c r="I54" s="180"/>
-      <c r="J54" s="132"/>
+      <c r="J54" s="132">
+        <v>14</v>
+      </c>
       <c r="K54" s="133"/>
       <c r="L54" s="58"/>
       <c r="M54" s="58"/>
       <c r="N54" s="114">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -6454,7 +6593,7 @@
       <c r="H55" s="155"/>
       <c r="I55" s="184"/>
       <c r="J55" s="156">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K55" s="155"/>
       <c r="L55" s="59"/>
@@ -6984,14 +7123,14 @@
       <c r="E74" s="273"/>
       <c r="F74" s="497">
         <f>SUM(F4:H73)</f>
-        <v>10450000</v>
+        <v>10150000</v>
       </c>
       <c r="G74" s="498"/>
       <c r="H74" s="499"/>
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
-        <v>1008</v>
+        <v>1045</v>
       </c>
       <c r="K74" s="246"/>
       <c r="L74" s="244"/>
@@ -7009,23 +7148,23 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.31496062992125984" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
       <selection pane="topRight" activeCell="G25" sqref="G25"/>
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -11181,6 +11320,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23489,16 +23629,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="259">
   <si>
     <t>조합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2048,10 +2048,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2019년 4월부터 년발행으로 변경 10% DC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2061,17 +2057,26 @@
   </si>
   <si>
     <t>12월까지 선납</t>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;개&quot;\ &quot;조&quot;&quot;합&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2307,6 +2312,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3171,7 +3184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="524">
+  <cellXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4651,6 +4664,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4743,6 +4759,9 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5035,10 +5054,10 @@
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N74"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5056,39 +5075,41 @@
     <col min="12" max="12" width="8.75" style="81" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="81" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="83" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32.25" thickBot="1">
-      <c r="A1" s="493" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="493"/>
+    <row r="1" spans="1:15" ht="32.25" thickBot="1">
+      <c r="A1" s="494" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="494"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="500" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="501"/>
-      <c r="C2" s="504" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="505"/>
-      <c r="E2" s="505"/>
-      <c r="F2" s="505"/>
-      <c r="G2" s="505"/>
-      <c r="H2" s="505"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="494"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="496"/>
-    </row>
-    <row r="3" spans="1:14" ht="33.75" thickBot="1">
-      <c r="A3" s="502"/>
-      <c r="B3" s="503"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="501" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="502"/>
+      <c r="C2" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="507"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="496"/>
+      <c r="L2" s="496"/>
+      <c r="M2" s="496"/>
+      <c r="N2" s="497"/>
+    </row>
+    <row r="3" spans="1:15" ht="33.75" thickBot="1">
+      <c r="A3" s="503"/>
+      <c r="B3" s="504"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -5126,7 +5147,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1">
       <c r="A4" s="305" t="s">
         <v>3</v>
       </c>
@@ -5161,8 +5182,12 @@
         <f>SUM(L4:M4)</f>
         <v>40000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="525">
+        <f>40000*J4*3</f>
+        <v>8040000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="310" t="s">
         <v>138</v>
       </c>
@@ -5198,7 +5223,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="308" t="s">
         <v>139</v>
       </c>
@@ -5221,7 +5246,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="107"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="308" t="s">
         <v>140</v>
       </c>
@@ -5244,7 +5269,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="107"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="308" t="s">
         <v>141</v>
       </c>
@@ -5267,7 +5292,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="107"/>
     </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1">
+    <row r="9" spans="1:15" ht="17.25" thickBot="1">
       <c r="A9" s="311"/>
       <c r="B9" s="284" t="s">
         <v>240</v>
@@ -5285,7 +5310,7 @@
       <c r="M9" s="55"/>
       <c r="N9" s="108"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="310" t="s">
         <v>5</v>
       </c>
@@ -5321,7 +5346,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="308" t="s">
         <v>175</v>
       </c>
@@ -5355,7 +5380,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="308" t="s">
         <v>143</v>
       </c>
@@ -5385,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="331"/>
       <c r="B13" s="286" t="s">
         <v>239</v>
@@ -5403,7 +5428,7 @@
       <c r="M13" s="333"/>
       <c r="N13" s="334"/>
     </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1">
+    <row r="14" spans="1:15" ht="17.25" thickBot="1">
       <c r="A14" s="335"/>
       <c r="B14" s="286" t="s">
         <v>248</v>
@@ -5421,7 +5446,7 @@
       <c r="M14" s="337"/>
       <c r="N14" s="338"/>
     </row>
-    <row r="15" spans="1:14" ht="17.25" thickBot="1">
+    <row r="15" spans="1:15" ht="17.25" thickBot="1">
       <c r="A15" s="310" t="s">
         <v>6</v>
       </c>
@@ -5445,7 +5470,7 @@
       <c r="M15" s="234"/>
       <c r="N15" s="215"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="308" t="s">
         <v>144</v>
       </c>
@@ -5949,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" s="310" t="s">
         <v>16</v>
       </c>
@@ -5971,7 +5996,7 @@
       <c r="M33" s="59"/>
       <c r="N33" s="123"/>
     </row>
-    <row r="34" spans="1:17" ht="17.25" thickBot="1">
+    <row r="34" spans="1:18" ht="17.25" thickBot="1">
       <c r="A34" s="311" t="s">
         <v>152</v>
       </c>
@@ -6003,7 +6028,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="310" t="s">
         <v>18</v>
       </c>
@@ -6041,7 +6066,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" s="308" t="s">
         <v>153</v>
       </c>
@@ -6069,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" s="308"/>
       <c r="B37" s="286" t="s">
         <v>242</v>
@@ -6087,7 +6112,7 @@
       <c r="M37" s="57"/>
       <c r="N37" s="107"/>
     </row>
-    <row r="38" spans="1:17" ht="17.25" thickBot="1">
+    <row r="38" spans="1:18" ht="17.25" thickBot="1">
       <c r="A38" s="311"/>
       <c r="B38" s="284" t="s">
         <v>248</v>
@@ -6111,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="310" t="s">
         <v>20</v>
       </c>
@@ -6142,7 +6167,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="17.25" thickBot="1">
+    <row r="40" spans="1:18" ht="17.25" thickBot="1">
       <c r="A40" s="308" t="s">
         <v>154</v>
       </c>
@@ -6162,7 +6187,7 @@
       <c r="M40" s="57"/>
       <c r="N40" s="107"/>
     </row>
-    <row r="41" spans="1:17" ht="17.25" thickBot="1">
+    <row r="41" spans="1:18" ht="17.25" thickBot="1">
       <c r="A41" s="306" t="s">
         <v>22</v>
       </c>
@@ -6176,8 +6201,8 @@
       <c r="E41" s="52">
         <v>0</v>
       </c>
-      <c r="F41" s="357" t="s">
-        <v>257</v>
+      <c r="F41" s="357">
+        <v>300000</v>
       </c>
       <c r="G41" s="357"/>
       <c r="H41" s="36">
@@ -6193,14 +6218,18 @@
       <c r="N41" s="130">
         <v>50000</v>
       </c>
-      <c r="P41" t="s">
+      <c r="O41" s="493"/>
+      <c r="P41" s="493" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>254</v>
+      </c>
+      <c r="R41" t="s">
         <v>255</v>
       </c>
-      <c r="Q41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="312" t="s">
         <v>24</v>
       </c>
@@ -6231,7 +6260,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="17.25" thickBot="1">
+    <row r="43" spans="1:18" ht="17.25" thickBot="1">
       <c r="A43" s="308"/>
       <c r="B43" s="286" t="s">
         <v>241</v>
@@ -6255,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" s="310" t="s">
         <v>26</v>
       </c>
@@ -6287,7 +6316,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="17.25" thickBot="1">
+    <row r="45" spans="1:18" ht="17.25" thickBot="1">
       <c r="A45" s="311" t="s">
         <v>155</v>
       </c>
@@ -6313,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="17.25" thickBot="1">
+    <row r="46" spans="1:18" ht="17.25" thickBot="1">
       <c r="A46" s="305" t="s">
         <v>28</v>
       </c>
@@ -6346,7 +6375,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="17.25" thickBot="1">
+    <row r="47" spans="1:18" ht="17.25" thickBot="1">
       <c r="A47" s="306" t="s">
         <v>30</v>
       </c>
@@ -6380,7 +6409,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1">
+    <row r="48" spans="1:18" ht="17.25" thickBot="1">
       <c r="A48" s="312" t="s">
         <v>32</v>
       </c>
@@ -7114,19 +7143,19 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A74" s="507" t="s">
+      <c r="A74" s="508" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="508"/>
+      <c r="B74" s="509"/>
       <c r="C74" s="272"/>
       <c r="D74" s="272"/>
       <c r="E74" s="273"/>
-      <c r="F74" s="497">
+      <c r="F74" s="498">
         <f>SUM(F4:H73)</f>
-        <v>10150000</v>
-      </c>
-      <c r="G74" s="498"/>
-      <c r="H74" s="499"/>
+        <v>10450000</v>
+      </c>
+      <c r="G74" s="499"/>
+      <c r="H74" s="500"/>
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
@@ -7148,7 +7177,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.31496062992125984" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7218,56 +7247,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="500" t="s">
+      <c r="A3" s="501" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="501"/>
-      <c r="C3" s="504" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="505"/>
-      <c r="G3" s="505"/>
-      <c r="H3" s="505"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="512" t="s">
+      <c r="B3" s="502"/>
+      <c r="C3" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="507"/>
+      <c r="J3" s="513" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="513"/>
-      <c r="L3" s="513"/>
-      <c r="M3" s="513"/>
-      <c r="N3" s="513"/>
-      <c r="O3" s="513"/>
-      <c r="P3" s="513"/>
-      <c r="Q3" s="514"/>
+      <c r="K3" s="514"/>
+      <c r="L3" s="514"/>
+      <c r="M3" s="514"/>
+      <c r="N3" s="514"/>
+      <c r="O3" s="514"/>
+      <c r="P3" s="514"/>
+      <c r="Q3" s="515"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="515" t="s">
+      <c r="S3" s="516" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="516"/>
-      <c r="U3" s="519" t="s">
+      <c r="T3" s="517"/>
+      <c r="U3" s="520" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="520"/>
-      <c r="W3" s="520"/>
-      <c r="X3" s="520"/>
-      <c r="Y3" s="520"/>
-      <c r="Z3" s="520"/>
-      <c r="AA3" s="521"/>
-      <c r="AB3" s="509" t="s">
+      <c r="V3" s="521"/>
+      <c r="W3" s="521"/>
+      <c r="X3" s="521"/>
+      <c r="Y3" s="521"/>
+      <c r="Z3" s="521"/>
+      <c r="AA3" s="522"/>
+      <c r="AB3" s="510" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="509"/>
-      <c r="AD3" s="509"/>
-      <c r="AE3" s="509"/>
-      <c r="AG3" s="509" t="s">
+      <c r="AC3" s="510"/>
+      <c r="AD3" s="510"/>
+      <c r="AE3" s="510"/>
+      <c r="AG3" s="510" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="502"/>
-      <c r="B4" s="503"/>
+      <c r="A4" s="503"/>
+      <c r="B4" s="504"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -7314,8 +7343,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="517"/>
-      <c r="T4" s="518"/>
+      <c r="S4" s="518"/>
+      <c r="T4" s="519"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -7349,7 +7378,7 @@
       <c r="AE4" s="462" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="509"/>
+      <c r="AG4" s="510"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -11250,19 +11279,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="507" t="s">
+      <c r="A66" s="508" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="508"/>
+      <c r="B66" s="509"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="497">
+      <c r="F66" s="498">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="498"/>
-      <c r="H66" s="499"/>
+      <c r="G66" s="499"/>
+      <c r="H66" s="500"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -11281,10 +11310,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="510" t="s">
+      <c r="S66" s="511" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="511"/>
+      <c r="T66" s="512"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>166</v>
@@ -11390,56 +11419,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="500" t="s">
+      <c r="A3" s="501" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="501"/>
-      <c r="C3" s="504" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="505"/>
-      <c r="G3" s="505"/>
-      <c r="H3" s="505"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="512" t="s">
+      <c r="B3" s="502"/>
+      <c r="C3" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="507"/>
+      <c r="J3" s="513" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="513"/>
-      <c r="L3" s="513"/>
-      <c r="M3" s="513"/>
-      <c r="N3" s="513"/>
-      <c r="O3" s="513"/>
-      <c r="P3" s="513"/>
-      <c r="Q3" s="514"/>
+      <c r="K3" s="514"/>
+      <c r="L3" s="514"/>
+      <c r="M3" s="514"/>
+      <c r="N3" s="514"/>
+      <c r="O3" s="514"/>
+      <c r="P3" s="514"/>
+      <c r="Q3" s="515"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="515" t="s">
+      <c r="S3" s="516" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="516"/>
-      <c r="U3" s="519" t="s">
+      <c r="T3" s="517"/>
+      <c r="U3" s="520" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="520"/>
-      <c r="W3" s="520"/>
-      <c r="X3" s="520"/>
-      <c r="Y3" s="520"/>
-      <c r="Z3" s="520"/>
-      <c r="AA3" s="521"/>
-      <c r="AB3" s="509" t="s">
+      <c r="V3" s="521"/>
+      <c r="W3" s="521"/>
+      <c r="X3" s="521"/>
+      <c r="Y3" s="521"/>
+      <c r="Z3" s="521"/>
+      <c r="AA3" s="522"/>
+      <c r="AB3" s="510" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="509"/>
-      <c r="AD3" s="509"/>
-      <c r="AE3" s="509"/>
-      <c r="AG3" s="509" t="s">
+      <c r="AC3" s="510"/>
+      <c r="AD3" s="510"/>
+      <c r="AE3" s="510"/>
+      <c r="AG3" s="510" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="502"/>
-      <c r="B4" s="503"/>
+      <c r="A4" s="503"/>
+      <c r="B4" s="504"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -11486,8 +11515,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="517"/>
-      <c r="T4" s="518"/>
+      <c r="S4" s="518"/>
+      <c r="T4" s="519"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -11521,7 +11550,7 @@
       <c r="AE4" s="448" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="509"/>
+      <c r="AG4" s="510"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -15396,19 +15425,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="507" t="s">
+      <c r="A66" s="508" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="508"/>
+      <c r="B66" s="509"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="497">
+      <c r="F66" s="498">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="498"/>
-      <c r="H66" s="499"/>
+      <c r="G66" s="499"/>
+      <c r="H66" s="500"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -15427,10 +15456,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="510" t="s">
+      <c r="S66" s="511" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="511"/>
+      <c r="T66" s="512"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>165</v>
@@ -15527,56 +15556,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="501" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="501"/>
-      <c r="C2" s="504" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="505"/>
-      <c r="E2" s="505"/>
-      <c r="F2" s="505"/>
-      <c r="G2" s="505"/>
-      <c r="H2" s="505"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="512" t="s">
+      <c r="B2" s="502"/>
+      <c r="C2" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="507"/>
+      <c r="J2" s="513" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="513"/>
-      <c r="L2" s="513"/>
-      <c r="M2" s="513"/>
-      <c r="N2" s="513"/>
-      <c r="O2" s="513"/>
-      <c r="P2" s="513"/>
-      <c r="Q2" s="514"/>
+      <c r="K2" s="514"/>
+      <c r="L2" s="514"/>
+      <c r="M2" s="514"/>
+      <c r="N2" s="514"/>
+      <c r="O2" s="514"/>
+      <c r="P2" s="514"/>
+      <c r="Q2" s="515"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="515" t="s">
+      <c r="S2" s="516" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="516"/>
-      <c r="U2" s="519" t="s">
+      <c r="T2" s="517"/>
+      <c r="U2" s="520" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="520"/>
-      <c r="W2" s="520"/>
-      <c r="X2" s="520"/>
-      <c r="Y2" s="520"/>
-      <c r="Z2" s="520"/>
-      <c r="AA2" s="521"/>
-      <c r="AB2" s="509" t="s">
+      <c r="V2" s="521"/>
+      <c r="W2" s="521"/>
+      <c r="X2" s="521"/>
+      <c r="Y2" s="521"/>
+      <c r="Z2" s="521"/>
+      <c r="AA2" s="522"/>
+      <c r="AB2" s="510" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="509"/>
-      <c r="AD2" s="509"/>
-      <c r="AE2" s="509"/>
-      <c r="AG2" s="509" t="s">
+      <c r="AC2" s="510"/>
+      <c r="AD2" s="510"/>
+      <c r="AE2" s="510"/>
+      <c r="AG2" s="510" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="502"/>
-      <c r="B3" s="503"/>
+      <c r="A3" s="503"/>
+      <c r="B3" s="504"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -15623,8 +15652,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="517"/>
-      <c r="T3" s="518"/>
+      <c r="S3" s="518"/>
+      <c r="T3" s="519"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -15658,7 +15687,7 @@
       <c r="AE3" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="509"/>
+      <c r="AG3" s="510"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="306" t="s">
@@ -19517,19 +19546,19 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="507" t="s">
+      <c r="A64" s="508" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="508"/>
+      <c r="B64" s="509"/>
       <c r="C64" s="272"/>
       <c r="D64" s="272"/>
       <c r="E64" s="273"/>
-      <c r="F64" s="497">
+      <c r="F64" s="498">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="498"/>
-      <c r="H64" s="499"/>
+      <c r="G64" s="499"/>
+      <c r="H64" s="500"/>
       <c r="I64" s="372"/>
       <c r="J64" s="423">
         <f>SUM(J4:J63)</f>
@@ -19548,10 +19577,10 @@
       </c>
       <c r="P64" s="426"/>
       <c r="Q64" s="427"/>
-      <c r="S64" s="510" t="s">
+      <c r="S64" s="511" t="s">
         <v>180</v>
       </c>
-      <c r="T64" s="511"/>
+      <c r="T64" s="512"/>
       <c r="U64" s="320">
         <f>SUM(U4:U63)</f>
         <v>162</v>
@@ -19650,56 +19679,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="501" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="501"/>
-      <c r="C2" s="504" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="505"/>
-      <c r="E2" s="505"/>
-      <c r="F2" s="505"/>
-      <c r="G2" s="505"/>
-      <c r="H2" s="505"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="512" t="s">
+      <c r="B2" s="502"/>
+      <c r="C2" s="505" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="507"/>
+      <c r="J2" s="513" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="513"/>
-      <c r="L2" s="513"/>
-      <c r="M2" s="513"/>
-      <c r="N2" s="513"/>
-      <c r="O2" s="513"/>
-      <c r="P2" s="513"/>
-      <c r="Q2" s="514"/>
+      <c r="K2" s="514"/>
+      <c r="L2" s="514"/>
+      <c r="M2" s="514"/>
+      <c r="N2" s="514"/>
+      <c r="O2" s="514"/>
+      <c r="P2" s="514"/>
+      <c r="Q2" s="515"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="515" t="s">
+      <c r="S2" s="516" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="516"/>
-      <c r="U2" s="519" t="s">
+      <c r="T2" s="517"/>
+      <c r="U2" s="520" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="520"/>
-      <c r="W2" s="520"/>
-      <c r="X2" s="520"/>
-      <c r="Y2" s="520"/>
-      <c r="Z2" s="520"/>
-      <c r="AA2" s="521"/>
-      <c r="AB2" s="509" t="s">
+      <c r="V2" s="521"/>
+      <c r="W2" s="521"/>
+      <c r="X2" s="521"/>
+      <c r="Y2" s="521"/>
+      <c r="Z2" s="521"/>
+      <c r="AA2" s="522"/>
+      <c r="AB2" s="510" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="509"/>
-      <c r="AD2" s="509"/>
-      <c r="AE2" s="509"/>
-      <c r="AG2" s="509" t="s">
+      <c r="AC2" s="510"/>
+      <c r="AD2" s="510"/>
+      <c r="AE2" s="510"/>
+      <c r="AG2" s="510" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="502"/>
-      <c r="B3" s="503"/>
+      <c r="A3" s="503"/>
+      <c r="B3" s="504"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -19746,8 +19775,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="517"/>
-      <c r="T3" s="518"/>
+      <c r="S3" s="518"/>
+      <c r="T3" s="519"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -19781,7 +19810,7 @@
       <c r="AE3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="509"/>
+      <c r="AG3" s="510"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="305" t="s">
@@ -23572,21 +23601,21 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="507" t="s">
+      <c r="A63" s="508" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="508"/>
+      <c r="B63" s="509"/>
       <c r="C63" s="272"/>
       <c r="D63" s="272"/>
       <c r="E63" s="273"/>
       <c r="F63" s="275">
         <v>41</v>
       </c>
-      <c r="G63" s="522">
+      <c r="G63" s="523">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="523"/>
+      <c r="H63" s="524"/>
       <c r="I63" s="245"/>
       <c r="J63" s="274">
         <f>SUM(J4:J62)</f>
@@ -23605,10 +23634,10 @@
       </c>
       <c r="P63" s="247"/>
       <c r="Q63" s="248"/>
-      <c r="S63" s="510" t="s">
+      <c r="S63" s="511" t="s">
         <v>180</v>
       </c>
-      <c r="T63" s="511"/>
+      <c r="T63" s="512"/>
       <c r="U63" s="320">
         <f>SUM(U4:U62)</f>
         <v>10</v>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -2059,11 +2059,11 @@
     <t>12월까지 선납</t>
   </si>
   <si>
-    <t>6월</t>
+    <t>조합구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조합구분</t>
+    <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4667,6 +4667,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4759,9 +4762,6 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5080,36 +5080,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" thickBot="1">
-      <c r="A1" s="494" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="494"/>
+      <c r="A1" s="495" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="495"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="501" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="496"/>
-      <c r="L2" s="496"/>
-      <c r="M2" s="496"/>
-      <c r="N2" s="497"/>
+      <c r="A2" s="502" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="503"/>
+      <c r="C2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="507"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="496"/>
+      <c r="K2" s="497"/>
+      <c r="L2" s="497"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="498"/>
     </row>
     <row r="3" spans="1:15" ht="33.75" thickBot="1">
-      <c r="A3" s="503"/>
-      <c r="B3" s="504"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="505"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -5182,7 +5182,7 @@
         <f>SUM(L4:M4)</f>
         <v>40000</v>
       </c>
-      <c r="O4" s="525">
+      <c r="O4" s="494">
         <f>40000*J4*3</f>
         <v>8040000</v>
       </c>
@@ -7143,19 +7143,19 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A74" s="508" t="s">
+      <c r="A74" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="509"/>
+      <c r="B74" s="510"/>
       <c r="C74" s="272"/>
       <c r="D74" s="272"/>
       <c r="E74" s="273"/>
-      <c r="F74" s="498">
+      <c r="F74" s="499">
         <f>SUM(F4:H73)</f>
         <v>10450000</v>
       </c>
-      <c r="G74" s="499"/>
-      <c r="H74" s="500"/>
+      <c r="G74" s="500"/>
+      <c r="H74" s="501"/>
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
@@ -7247,56 +7247,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="501" t="s">
+      <c r="A3" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="513" t="s">
+      <c r="B3" s="503"/>
+      <c r="C3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="514"/>
-      <c r="L3" s="514"/>
-      <c r="M3" s="514"/>
-      <c r="N3" s="514"/>
-      <c r="O3" s="514"/>
-      <c r="P3" s="514"/>
-      <c r="Q3" s="515"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="515"/>
+      <c r="M3" s="515"/>
+      <c r="N3" s="515"/>
+      <c r="O3" s="515"/>
+      <c r="P3" s="515"/>
+      <c r="Q3" s="516"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="516" t="s">
+      <c r="S3" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="517"/>
-      <c r="U3" s="520" t="s">
+      <c r="T3" s="518"/>
+      <c r="U3" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="521"/>
-      <c r="W3" s="521"/>
-      <c r="X3" s="521"/>
-      <c r="Y3" s="521"/>
-      <c r="Z3" s="521"/>
-      <c r="AA3" s="522"/>
-      <c r="AB3" s="510" t="s">
+      <c r="V3" s="522"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="522"/>
+      <c r="Y3" s="522"/>
+      <c r="Z3" s="522"/>
+      <c r="AA3" s="523"/>
+      <c r="AB3" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="510"/>
-      <c r="AD3" s="510"/>
-      <c r="AE3" s="510"/>
-      <c r="AG3" s="510" t="s">
+      <c r="AC3" s="511"/>
+      <c r="AD3" s="511"/>
+      <c r="AE3" s="511"/>
+      <c r="AG3" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="503"/>
-      <c r="B4" s="504"/>
+      <c r="A4" s="504"/>
+      <c r="B4" s="505"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -7343,8 +7343,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="518"/>
-      <c r="T4" s="519"/>
+      <c r="S4" s="519"/>
+      <c r="T4" s="520"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="AE4" s="462" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="510"/>
+      <c r="AG4" s="511"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -11279,19 +11279,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="508" t="s">
+      <c r="A66" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="509"/>
+      <c r="B66" s="510"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="498">
+      <c r="F66" s="499">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="499"/>
-      <c r="H66" s="500"/>
+      <c r="G66" s="500"/>
+      <c r="H66" s="501"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -11310,10 +11310,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="511" t="s">
+      <c r="S66" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="512"/>
+      <c r="T66" s="513"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>166</v>
@@ -11419,56 +11419,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="501" t="s">
+      <c r="A3" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="513" t="s">
+      <c r="B3" s="503"/>
+      <c r="C3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="514"/>
-      <c r="L3" s="514"/>
-      <c r="M3" s="514"/>
-      <c r="N3" s="514"/>
-      <c r="O3" s="514"/>
-      <c r="P3" s="514"/>
-      <c r="Q3" s="515"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="515"/>
+      <c r="M3" s="515"/>
+      <c r="N3" s="515"/>
+      <c r="O3" s="515"/>
+      <c r="P3" s="515"/>
+      <c r="Q3" s="516"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="516" t="s">
+      <c r="S3" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="517"/>
-      <c r="U3" s="520" t="s">
+      <c r="T3" s="518"/>
+      <c r="U3" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="521"/>
-      <c r="W3" s="521"/>
-      <c r="X3" s="521"/>
-      <c r="Y3" s="521"/>
-      <c r="Z3" s="521"/>
-      <c r="AA3" s="522"/>
-      <c r="AB3" s="510" t="s">
+      <c r="V3" s="522"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="522"/>
+      <c r="Y3" s="522"/>
+      <c r="Z3" s="522"/>
+      <c r="AA3" s="523"/>
+      <c r="AB3" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="510"/>
-      <c r="AD3" s="510"/>
-      <c r="AE3" s="510"/>
-      <c r="AG3" s="510" t="s">
+      <c r="AC3" s="511"/>
+      <c r="AD3" s="511"/>
+      <c r="AE3" s="511"/>
+      <c r="AG3" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="503"/>
-      <c r="B4" s="504"/>
+      <c r="A4" s="504"/>
+      <c r="B4" s="505"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -11515,8 +11515,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="518"/>
-      <c r="T4" s="519"/>
+      <c r="S4" s="519"/>
+      <c r="T4" s="520"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -11550,7 +11550,7 @@
       <c r="AE4" s="448" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="510"/>
+      <c r="AG4" s="511"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -15425,19 +15425,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="508" t="s">
+      <c r="A66" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="509"/>
+      <c r="B66" s="510"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="498">
+      <c r="F66" s="499">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="499"/>
-      <c r="H66" s="500"/>
+      <c r="G66" s="500"/>
+      <c r="H66" s="501"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -15456,10 +15456,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="511" t="s">
+      <c r="S66" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="512"/>
+      <c r="T66" s="513"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>165</v>
@@ -15556,56 +15556,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="501" t="s">
+      <c r="A2" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="513" t="s">
+      <c r="B2" s="503"/>
+      <c r="C2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="507"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="514"/>
-      <c r="L2" s="514"/>
-      <c r="M2" s="514"/>
-      <c r="N2" s="514"/>
-      <c r="O2" s="514"/>
-      <c r="P2" s="514"/>
-      <c r="Q2" s="515"/>
+      <c r="K2" s="515"/>
+      <c r="L2" s="515"/>
+      <c r="M2" s="515"/>
+      <c r="N2" s="515"/>
+      <c r="O2" s="515"/>
+      <c r="P2" s="515"/>
+      <c r="Q2" s="516"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="516" t="s">
+      <c r="S2" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="517"/>
-      <c r="U2" s="520" t="s">
+      <c r="T2" s="518"/>
+      <c r="U2" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="521"/>
-      <c r="W2" s="521"/>
-      <c r="X2" s="521"/>
-      <c r="Y2" s="521"/>
-      <c r="Z2" s="521"/>
-      <c r="AA2" s="522"/>
-      <c r="AB2" s="510" t="s">
+      <c r="V2" s="522"/>
+      <c r="W2" s="522"/>
+      <c r="X2" s="522"/>
+      <c r="Y2" s="522"/>
+      <c r="Z2" s="522"/>
+      <c r="AA2" s="523"/>
+      <c r="AB2" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="510"/>
-      <c r="AD2" s="510"/>
-      <c r="AE2" s="510"/>
-      <c r="AG2" s="510" t="s">
+      <c r="AC2" s="511"/>
+      <c r="AD2" s="511"/>
+      <c r="AE2" s="511"/>
+      <c r="AG2" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="503"/>
-      <c r="B3" s="504"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="505"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -15652,8 +15652,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="518"/>
-      <c r="T3" s="519"/>
+      <c r="S3" s="519"/>
+      <c r="T3" s="520"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -15687,7 +15687,7 @@
       <c r="AE3" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="510"/>
+      <c r="AG3" s="511"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="306" t="s">
@@ -19546,19 +19546,19 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="508" t="s">
+      <c r="A64" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="509"/>
+      <c r="B64" s="510"/>
       <c r="C64" s="272"/>
       <c r="D64" s="272"/>
       <c r="E64" s="273"/>
-      <c r="F64" s="498">
+      <c r="F64" s="499">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="499"/>
-      <c r="H64" s="500"/>
+      <c r="G64" s="500"/>
+      <c r="H64" s="501"/>
       <c r="I64" s="372"/>
       <c r="J64" s="423">
         <f>SUM(J4:J63)</f>
@@ -19577,10 +19577,10 @@
       </c>
       <c r="P64" s="426"/>
       <c r="Q64" s="427"/>
-      <c r="S64" s="511" t="s">
+      <c r="S64" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T64" s="512"/>
+      <c r="T64" s="513"/>
       <c r="U64" s="320">
         <f>SUM(U4:U63)</f>
         <v>162</v>
@@ -19679,56 +19679,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="501" t="s">
+      <c r="A2" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="513" t="s">
+      <c r="B2" s="503"/>
+      <c r="C2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="507"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="514"/>
-      <c r="L2" s="514"/>
-      <c r="M2" s="514"/>
-      <c r="N2" s="514"/>
-      <c r="O2" s="514"/>
-      <c r="P2" s="514"/>
-      <c r="Q2" s="515"/>
+      <c r="K2" s="515"/>
+      <c r="L2" s="515"/>
+      <c r="M2" s="515"/>
+      <c r="N2" s="515"/>
+      <c r="O2" s="515"/>
+      <c r="P2" s="515"/>
+      <c r="Q2" s="516"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="516" t="s">
+      <c r="S2" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="517"/>
-      <c r="U2" s="520" t="s">
+      <c r="T2" s="518"/>
+      <c r="U2" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="521"/>
-      <c r="W2" s="521"/>
-      <c r="X2" s="521"/>
-      <c r="Y2" s="521"/>
-      <c r="Z2" s="521"/>
-      <c r="AA2" s="522"/>
-      <c r="AB2" s="510" t="s">
+      <c r="V2" s="522"/>
+      <c r="W2" s="522"/>
+      <c r="X2" s="522"/>
+      <c r="Y2" s="522"/>
+      <c r="Z2" s="522"/>
+      <c r="AA2" s="523"/>
+      <c r="AB2" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="510"/>
-      <c r="AD2" s="510"/>
-      <c r="AE2" s="510"/>
-      <c r="AG2" s="510" t="s">
+      <c r="AC2" s="511"/>
+      <c r="AD2" s="511"/>
+      <c r="AE2" s="511"/>
+      <c r="AG2" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="503"/>
-      <c r="B3" s="504"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="505"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -19775,8 +19775,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="518"/>
-      <c r="T3" s="519"/>
+      <c r="S3" s="519"/>
+      <c r="T3" s="520"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -19810,7 +19810,7 @@
       <c r="AE3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="510"/>
+      <c r="AG3" s="511"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="305" t="s">
@@ -23601,21 +23601,21 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="508" t="s">
+      <c r="A63" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="509"/>
+      <c r="B63" s="510"/>
       <c r="C63" s="272"/>
       <c r="D63" s="272"/>
       <c r="E63" s="273"/>
       <c r="F63" s="275">
         <v>41</v>
       </c>
-      <c r="G63" s="523">
+      <c r="G63" s="524">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="524"/>
+      <c r="H63" s="525"/>
       <c r="I63" s="245"/>
       <c r="J63" s="274">
         <f>SUM(J4:J62)</f>
@@ -23634,10 +23634,10 @@
       </c>
       <c r="P63" s="247"/>
       <c r="Q63" s="248"/>
-      <c r="S63" s="511" t="s">
+      <c r="S63" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T63" s="512"/>
+      <c r="T63" s="513"/>
       <c r="U63" s="320">
         <f>SUM(U4:U62)</f>
         <v>10</v>
@@ -23658,16 +23658,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -2063,7 +2063,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7월</t>
+    <t>9월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5332,7 +5332,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="176"/>
       <c r="J10" s="122">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="329">
@@ -6833,7 +6833,7 @@
       <c r="H63" s="77"/>
       <c r="I63" s="179"/>
       <c r="J63" s="45">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K63" s="77"/>
       <c r="L63" s="57">
@@ -7159,7 +7159,7 @@
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="K74" s="246"/>
       <c r="L74" s="244"/>
@@ -23658,16 +23658,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="258">
   <si>
     <t>조합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2062,19 +2062,16 @@
     <t>조합구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>9월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;개&quot;\ &quot;조&quot;&quot;합&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;월&quot;"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -4670,7 +4667,7 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5079,15 +5076,15 @@
     <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" thickBot="1">
-      <c r="A1" s="495" t="s">
-        <v>258</v>
+    <row r="1" spans="1:16" ht="32.25" thickBot="1">
+      <c r="A1" s="495">
+        <v>10</v>
       </c>
       <c r="B1" s="495"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="502" t="s">
         <v>257</v>
       </c>
@@ -5107,7 +5104,7 @@
       <c r="M2" s="497"/>
       <c r="N2" s="498"/>
     </row>
-    <row r="3" spans="1:15" ht="33.75" thickBot="1">
+    <row r="3" spans="1:16" ht="33.75" thickBot="1">
       <c r="A3" s="504"/>
       <c r="B3" s="505"/>
       <c r="C3" s="159" t="s">
@@ -5147,7 +5144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1">
+    <row r="4" spans="1:16" ht="17.25" thickBot="1">
       <c r="A4" s="305" t="s">
         <v>3</v>
       </c>
@@ -5182,12 +5179,12 @@
         <f>SUM(L4:M4)</f>
         <v>40000</v>
       </c>
-      <c r="O4" s="494">
+      <c r="P4" s="494">
         <f>40000*J4*3</f>
         <v>8040000</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="310" t="s">
         <v>138</v>
       </c>
@@ -5223,7 +5220,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="308" t="s">
         <v>139</v>
       </c>
@@ -5246,7 +5243,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="107"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="308" t="s">
         <v>140</v>
       </c>
@@ -5269,7 +5266,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="107"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="308" t="s">
         <v>141</v>
       </c>
@@ -5292,7 +5289,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="107"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1">
+    <row r="9" spans="1:16" ht="17.25" thickBot="1">
       <c r="A9" s="311"/>
       <c r="B9" s="284" t="s">
         <v>240</v>
@@ -5310,7 +5307,7 @@
       <c r="M9" s="55"/>
       <c r="N9" s="108"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="310" t="s">
         <v>5</v>
       </c>
@@ -5346,7 +5343,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="308" t="s">
         <v>175</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="308" t="s">
         <v>143</v>
       </c>
@@ -5410,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="331"/>
       <c r="B13" s="286" t="s">
         <v>239</v>
@@ -5428,7 +5425,7 @@
       <c r="M13" s="333"/>
       <c r="N13" s="334"/>
     </row>
-    <row r="14" spans="1:15" ht="17.25" thickBot="1">
+    <row r="14" spans="1:16" ht="17.25" thickBot="1">
       <c r="A14" s="335"/>
       <c r="B14" s="286" t="s">
         <v>248</v>
@@ -5446,7 +5443,7 @@
       <c r="M14" s="337"/>
       <c r="N14" s="338"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" thickBot="1">
+    <row r="15" spans="1:16" ht="17.25" thickBot="1">
       <c r="A15" s="310" t="s">
         <v>6</v>
       </c>
@@ -5470,7 +5467,7 @@
       <c r="M15" s="234"/>
       <c r="N15" s="215"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="308" t="s">
         <v>144</v>
       </c>
@@ -5943,7 +5940,7 @@
       <c r="H31" s="112"/>
       <c r="I31" s="440"/>
       <c r="J31" s="113">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="58"/>
@@ -6052,7 +6049,7 @@
         <v>300000</v>
       </c>
       <c r="J35" s="156">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35" s="155"/>
       <c r="L35" s="59">
@@ -6429,7 +6426,7 @@
       <c r="H48" s="141"/>
       <c r="I48" s="183"/>
       <c r="J48" s="142">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K48" s="141"/>
       <c r="L48" s="66"/>
@@ -7159,7 +7156,7 @@
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="K74" s="246"/>
       <c r="L74" s="244"/>
@@ -23658,16 +23655,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -5078,7 +5078,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="32.25" thickBot="1">
       <c r="A1" s="495">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="495"/>
       <c r="G1" s="73"/>
@@ -6363,7 +6363,7 @@
         <v>300000</v>
       </c>
       <c r="J46" s="237">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="235"/>
       <c r="L46" s="234"/>
@@ -7061,7 +7061,7 @@
       <c r="H71" s="77"/>
       <c r="I71" s="179"/>
       <c r="J71" s="45">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K71" s="77"/>
       <c r="L71" s="57">
@@ -7156,7 +7156,7 @@
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="K74" s="246"/>
       <c r="L74" s="244"/>
@@ -23655,16 +23655,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -2073,7 +2073,7 @@
     <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0&quot;월&quot;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2315,6 +2315,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -3181,7 +3189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="527">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4665,6 +4673,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5076,37 +5087,37 @@
     <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.25" thickBot="1">
-      <c r="A1" s="495">
-        <v>11</v>
-      </c>
-      <c r="B1" s="495"/>
+    <row r="1" spans="1:15" ht="32.25" thickBot="1">
+      <c r="A1" s="496">
+        <v>12</v>
+      </c>
+      <c r="B1" s="496"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="502" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="503" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="496"/>
-      <c r="K2" s="497"/>
-      <c r="L2" s="497"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="498"/>
-    </row>
-    <row r="3" spans="1:16" ht="33.75" thickBot="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="505"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="497"/>
+      <c r="K2" s="498"/>
+      <c r="L2" s="498"/>
+      <c r="M2" s="498"/>
+      <c r="N2" s="499"/>
+    </row>
+    <row r="3" spans="1:15" ht="33.75" thickBot="1">
+      <c r="A3" s="505"/>
+      <c r="B3" s="506"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -5144,7 +5155,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1">
       <c r="A4" s="305" t="s">
         <v>3</v>
       </c>
@@ -5179,12 +5190,12 @@
         <f>SUM(L4:M4)</f>
         <v>40000</v>
       </c>
-      <c r="P4" s="494">
+      <c r="O4" s="494">
         <f>40000*J4*3</f>
         <v>8040000</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" s="310" t="s">
         <v>138</v>
       </c>
@@ -5220,7 +5231,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="308" t="s">
         <v>139</v>
       </c>
@@ -5243,7 +5254,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="107"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7" s="308" t="s">
         <v>140</v>
       </c>
@@ -5266,7 +5277,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="107"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15">
       <c r="A8" s="308" t="s">
         <v>141</v>
       </c>
@@ -5289,7 +5300,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="107"/>
     </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1">
+    <row r="9" spans="1:15" ht="17.25" thickBot="1">
       <c r="A9" s="311"/>
       <c r="B9" s="284" t="s">
         <v>240</v>
@@ -5307,7 +5318,7 @@
       <c r="M9" s="55"/>
       <c r="N9" s="108"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:15">
       <c r="A10" s="310" t="s">
         <v>5</v>
       </c>
@@ -5343,7 +5354,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:15">
       <c r="A11" s="308" t="s">
         <v>175</v>
       </c>
@@ -5377,7 +5388,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15">
       <c r="A12" s="308" t="s">
         <v>143</v>
       </c>
@@ -5407,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15">
       <c r="A13" s="331"/>
       <c r="B13" s="286" t="s">
         <v>239</v>
@@ -5425,7 +5436,7 @@
       <c r="M13" s="333"/>
       <c r="N13" s="334"/>
     </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1">
+    <row r="14" spans="1:15" ht="17.25" thickBot="1">
       <c r="A14" s="335"/>
       <c r="B14" s="286" t="s">
         <v>248</v>
@@ -5443,7 +5454,7 @@
       <c r="M14" s="337"/>
       <c r="N14" s="338"/>
     </row>
-    <row r="15" spans="1:16" ht="17.25" thickBot="1">
+    <row r="15" spans="1:15" ht="17.25" thickBot="1">
       <c r="A15" s="310" t="s">
         <v>6</v>
       </c>
@@ -5467,7 +5478,7 @@
       <c r="M15" s="234"/>
       <c r="N15" s="215"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15">
       <c r="A16" s="308" t="s">
         <v>144</v>
       </c>
@@ -5721,7 +5732,7 @@
       <c r="H24" s="77"/>
       <c r="I24" s="179"/>
       <c r="J24" s="45">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" s="77"/>
       <c r="L24" s="57"/>
@@ -5940,7 +5951,7 @@
       <c r="H31" s="112"/>
       <c r="I31" s="440"/>
       <c r="J31" s="113">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="58"/>
@@ -6037,10 +6048,7 @@
       </c>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
-      <c r="F35" s="344">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
+      <c r="F35" s="344"/>
       <c r="G35" s="354">
         <v>100000</v>
       </c>
@@ -6048,20 +6056,11 @@
       <c r="I35" s="184">
         <v>300000</v>
       </c>
-      <c r="J35" s="156">
-        <v>33</v>
-      </c>
+      <c r="J35" s="156"/>
       <c r="K35" s="155"/>
-      <c r="L35" s="59">
-        <v>30000</v>
-      </c>
-      <c r="M35" s="59">
-        <v>10000</v>
-      </c>
-      <c r="N35" s="123">
-        <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="123"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="308" t="s">
@@ -6074,21 +6073,25 @@
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="346">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="G36" s="350">
         <v>100000</v>
       </c>
       <c r="H36" s="77"/>
       <c r="I36" s="179"/>
-      <c r="J36" s="45"/>
+      <c r="J36" s="45">
+        <v>33</v>
+      </c>
       <c r="K36" s="77"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="L36" s="57">
+        <v>30000</v>
+      </c>
+      <c r="M36" s="57">
+        <v>10000</v>
+      </c>
       <c r="N36" s="107">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -6212,7 +6215,7 @@
       <c r="K41" s="35"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
-      <c r="N41" s="130">
+      <c r="N41" s="495">
         <v>50000</v>
       </c>
       <c r="O41" s="493"/>
@@ -7140,19 +7143,19 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A74" s="509" t="s">
+      <c r="A74" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="510"/>
+      <c r="B74" s="511"/>
       <c r="C74" s="272"/>
       <c r="D74" s="272"/>
       <c r="E74" s="273"/>
-      <c r="F74" s="499">
+      <c r="F74" s="500">
         <f>SUM(F4:H73)</f>
         <v>10450000</v>
       </c>
-      <c r="G74" s="500"/>
-      <c r="H74" s="501"/>
+      <c r="G74" s="501"/>
+      <c r="H74" s="502"/>
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
@@ -7244,56 +7247,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="502" t="s">
+      <c r="A3" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="503"/>
-      <c r="C3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="508"/>
-      <c r="J3" s="514" t="s">
+      <c r="B3" s="504"/>
+      <c r="C3" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515"/>
-      <c r="N3" s="515"/>
-      <c r="O3" s="515"/>
-      <c r="P3" s="515"/>
-      <c r="Q3" s="516"/>
+      <c r="K3" s="516"/>
+      <c r="L3" s="516"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
+      <c r="O3" s="516"/>
+      <c r="P3" s="516"/>
+      <c r="Q3" s="517"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="517" t="s">
+      <c r="S3" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="518"/>
-      <c r="U3" s="521" t="s">
+      <c r="T3" s="519"/>
+      <c r="U3" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="522"/>
-      <c r="Y3" s="522"/>
-      <c r="Z3" s="522"/>
-      <c r="AA3" s="523"/>
-      <c r="AB3" s="511" t="s">
+      <c r="V3" s="523"/>
+      <c r="W3" s="523"/>
+      <c r="X3" s="523"/>
+      <c r="Y3" s="523"/>
+      <c r="Z3" s="523"/>
+      <c r="AA3" s="524"/>
+      <c r="AB3" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="511"/>
-      <c r="AD3" s="511"/>
-      <c r="AE3" s="511"/>
-      <c r="AG3" s="511" t="s">
+      <c r="AC3" s="512"/>
+      <c r="AD3" s="512"/>
+      <c r="AE3" s="512"/>
+      <c r="AG3" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="504"/>
-      <c r="B4" s="505"/>
+      <c r="A4" s="505"/>
+      <c r="B4" s="506"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -7340,8 +7343,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="520"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="521"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -7375,7 +7378,7 @@
       <c r="AE4" s="462" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="511"/>
+      <c r="AG4" s="512"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -11276,19 +11279,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="509" t="s">
+      <c r="A66" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="510"/>
+      <c r="B66" s="511"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="499">
+      <c r="F66" s="500">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="500"/>
-      <c r="H66" s="501"/>
+      <c r="G66" s="501"/>
+      <c r="H66" s="502"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -11307,10 +11310,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="512" t="s">
+      <c r="S66" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="513"/>
+      <c r="T66" s="514"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>166</v>
@@ -11416,56 +11419,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="502" t="s">
+      <c r="A3" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="503"/>
-      <c r="C3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="508"/>
-      <c r="J3" s="514" t="s">
+      <c r="B3" s="504"/>
+      <c r="C3" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515"/>
-      <c r="N3" s="515"/>
-      <c r="O3" s="515"/>
-      <c r="P3" s="515"/>
-      <c r="Q3" s="516"/>
+      <c r="K3" s="516"/>
+      <c r="L3" s="516"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
+      <c r="O3" s="516"/>
+      <c r="P3" s="516"/>
+      <c r="Q3" s="517"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="517" t="s">
+      <c r="S3" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="518"/>
-      <c r="U3" s="521" t="s">
+      <c r="T3" s="519"/>
+      <c r="U3" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="522"/>
-      <c r="Y3" s="522"/>
-      <c r="Z3" s="522"/>
-      <c r="AA3" s="523"/>
-      <c r="AB3" s="511" t="s">
+      <c r="V3" s="523"/>
+      <c r="W3" s="523"/>
+      <c r="X3" s="523"/>
+      <c r="Y3" s="523"/>
+      <c r="Z3" s="523"/>
+      <c r="AA3" s="524"/>
+      <c r="AB3" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="511"/>
-      <c r="AD3" s="511"/>
-      <c r="AE3" s="511"/>
-      <c r="AG3" s="511" t="s">
+      <c r="AC3" s="512"/>
+      <c r="AD3" s="512"/>
+      <c r="AE3" s="512"/>
+      <c r="AG3" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="504"/>
-      <c r="B4" s="505"/>
+      <c r="A4" s="505"/>
+      <c r="B4" s="506"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -11512,8 +11515,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="520"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="521"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -11547,7 +11550,7 @@
       <c r="AE4" s="448" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="511"/>
+      <c r="AG4" s="512"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -15422,19 +15425,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="509" t="s">
+      <c r="A66" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="510"/>
+      <c r="B66" s="511"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="499">
+      <c r="F66" s="500">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="500"/>
-      <c r="H66" s="501"/>
+      <c r="G66" s="501"/>
+      <c r="H66" s="502"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -15453,10 +15456,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="512" t="s">
+      <c r="S66" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="513"/>
+      <c r="T66" s="514"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>165</v>
@@ -15553,56 +15556,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="514" t="s">
+      <c r="B2" s="504"/>
+      <c r="C2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="515"/>
-      <c r="N2" s="515"/>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515"/>
-      <c r="Q2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
+      <c r="O2" s="516"/>
+      <c r="P2" s="516"/>
+      <c r="Q2" s="517"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="517" t="s">
+      <c r="S2" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="518"/>
-      <c r="U2" s="521" t="s">
+      <c r="T2" s="519"/>
+      <c r="U2" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="522"/>
-      <c r="AA2" s="523"/>
-      <c r="AB2" s="511" t="s">
+      <c r="V2" s="523"/>
+      <c r="W2" s="523"/>
+      <c r="X2" s="523"/>
+      <c r="Y2" s="523"/>
+      <c r="Z2" s="523"/>
+      <c r="AA2" s="524"/>
+      <c r="AB2" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="511"/>
-      <c r="AD2" s="511"/>
-      <c r="AE2" s="511"/>
-      <c r="AG2" s="511" t="s">
+      <c r="AC2" s="512"/>
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="512"/>
+      <c r="AG2" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="505"/>
+      <c r="A3" s="505"/>
+      <c r="B3" s="506"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -15649,8 +15652,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="519"/>
-      <c r="T3" s="520"/>
+      <c r="S3" s="520"/>
+      <c r="T3" s="521"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -15684,7 +15687,7 @@
       <c r="AE3" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="511"/>
+      <c r="AG3" s="512"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="306" t="s">
@@ -19543,19 +19546,19 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="509" t="s">
+      <c r="A64" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="510"/>
+      <c r="B64" s="511"/>
       <c r="C64" s="272"/>
       <c r="D64" s="272"/>
       <c r="E64" s="273"/>
-      <c r="F64" s="499">
+      <c r="F64" s="500">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="500"/>
-      <c r="H64" s="501"/>
+      <c r="G64" s="501"/>
+      <c r="H64" s="502"/>
       <c r="I64" s="372"/>
       <c r="J64" s="423">
         <f>SUM(J4:J63)</f>
@@ -19574,10 +19577,10 @@
       </c>
       <c r="P64" s="426"/>
       <c r="Q64" s="427"/>
-      <c r="S64" s="512" t="s">
+      <c r="S64" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T64" s="513"/>
+      <c r="T64" s="514"/>
       <c r="U64" s="320">
         <f>SUM(U4:U63)</f>
         <v>162</v>
@@ -19676,56 +19679,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="514" t="s">
+      <c r="B2" s="504"/>
+      <c r="C2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="515"/>
-      <c r="N2" s="515"/>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515"/>
-      <c r="Q2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
+      <c r="O2" s="516"/>
+      <c r="P2" s="516"/>
+      <c r="Q2" s="517"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="517" t="s">
+      <c r="S2" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="518"/>
-      <c r="U2" s="521" t="s">
+      <c r="T2" s="519"/>
+      <c r="U2" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="522"/>
-      <c r="AA2" s="523"/>
-      <c r="AB2" s="511" t="s">
+      <c r="V2" s="523"/>
+      <c r="W2" s="523"/>
+      <c r="X2" s="523"/>
+      <c r="Y2" s="523"/>
+      <c r="Z2" s="523"/>
+      <c r="AA2" s="524"/>
+      <c r="AB2" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="511"/>
-      <c r="AD2" s="511"/>
-      <c r="AE2" s="511"/>
-      <c r="AG2" s="511" t="s">
+      <c r="AC2" s="512"/>
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="512"/>
+      <c r="AG2" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="505"/>
+      <c r="A3" s="505"/>
+      <c r="B3" s="506"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -19772,8 +19775,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="519"/>
-      <c r="T3" s="520"/>
+      <c r="S3" s="520"/>
+      <c r="T3" s="521"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -19807,7 +19810,7 @@
       <c r="AE3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="511"/>
+      <c r="AG3" s="512"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="305" t="s">
@@ -23598,21 +23601,21 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="509" t="s">
+      <c r="A63" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="510"/>
+      <c r="B63" s="511"/>
       <c r="C63" s="272"/>
       <c r="D63" s="272"/>
       <c r="E63" s="273"/>
       <c r="F63" s="275">
         <v>41</v>
       </c>
-      <c r="G63" s="524">
+      <c r="G63" s="525">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="525"/>
+      <c r="H63" s="526"/>
       <c r="I63" s="245"/>
       <c r="J63" s="274">
         <f>SUM(J4:J62)</f>
@@ -23631,10 +23634,10 @@
       </c>
       <c r="P63" s="247"/>
       <c r="Q63" s="248"/>
-      <c r="S63" s="512" t="s">
+      <c r="S63" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T63" s="513"/>
+      <c r="T63" s="514"/>
       <c r="U63" s="320">
         <f>SUM(U4:U62)</f>
         <v>10</v>

--- a/01 회원사사용료현황(2019년).xlsx
+++ b/01 회원사사용료현황(2019년).xlsx
@@ -2073,7 +2073,7 @@
     <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0&quot;월&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2315,14 +2315,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -3189,7 +3181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4673,9 +4665,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5087,37 +5076,37 @@
     <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" thickBot="1">
-      <c r="A1" s="496">
+    <row r="1" spans="1:16" ht="32.25" thickBot="1">
+      <c r="A1" s="495">
         <v>12</v>
       </c>
-      <c r="B1" s="496"/>
+      <c r="B1" s="495"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="503" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="502" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="497"/>
-      <c r="K2" s="498"/>
-      <c r="L2" s="498"/>
-      <c r="M2" s="498"/>
-      <c r="N2" s="499"/>
-    </row>
-    <row r="3" spans="1:15" ht="33.75" thickBot="1">
-      <c r="A3" s="505"/>
-      <c r="B3" s="506"/>
+      <c r="B2" s="503"/>
+      <c r="C2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="507"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="496"/>
+      <c r="K2" s="497"/>
+      <c r="L2" s="497"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="498"/>
+    </row>
+    <row r="3" spans="1:16" ht="33.75" thickBot="1">
+      <c r="A3" s="504"/>
+      <c r="B3" s="505"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -5155,7 +5144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1">
+    <row r="4" spans="1:16" ht="17.25" thickBot="1">
       <c r="A4" s="305" t="s">
         <v>3</v>
       </c>
@@ -5190,12 +5179,12 @@
         <f>SUM(L4:M4)</f>
         <v>40000</v>
       </c>
-      <c r="O4" s="494">
+      <c r="P4" s="494">
         <f>40000*J4*3</f>
         <v>8040000</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="310" t="s">
         <v>138</v>
       </c>
@@ -5231,7 +5220,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="308" t="s">
         <v>139</v>
       </c>
@@ -5254,7 +5243,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="107"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="308" t="s">
         <v>140</v>
       </c>
@@ -5277,7 +5266,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="107"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="308" t="s">
         <v>141</v>
       </c>
@@ -5300,7 +5289,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="107"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1">
+    <row r="9" spans="1:16" ht="17.25" thickBot="1">
       <c r="A9" s="311"/>
       <c r="B9" s="284" t="s">
         <v>240</v>
@@ -5318,7 +5307,7 @@
       <c r="M9" s="55"/>
       <c r="N9" s="108"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="310" t="s">
         <v>5</v>
       </c>
@@ -5354,7 +5343,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="308" t="s">
         <v>175</v>
       </c>
@@ -5388,7 +5377,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="308" t="s">
         <v>143</v>
       </c>
@@ -5418,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="331"/>
       <c r="B13" s="286" t="s">
         <v>239</v>
@@ -5436,7 +5425,7 @@
       <c r="M13" s="333"/>
       <c r="N13" s="334"/>
     </row>
-    <row r="14" spans="1:15" ht="17.25" thickBot="1">
+    <row r="14" spans="1:16" ht="17.25" thickBot="1">
       <c r="A14" s="335"/>
       <c r="B14" s="286" t="s">
         <v>248</v>
@@ -5454,7 +5443,7 @@
       <c r="M14" s="337"/>
       <c r="N14" s="338"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" thickBot="1">
+    <row r="15" spans="1:16" ht="17.25" thickBot="1">
       <c r="A15" s="310" t="s">
         <v>6</v>
       </c>
@@ -5478,7 +5467,7 @@
       <c r="M15" s="234"/>
       <c r="N15" s="215"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="308" t="s">
         <v>144</v>
       </c>
@@ -5556,7 +5545,7 @@
         <v>300000</v>
       </c>
       <c r="J18" s="122">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="318">
@@ -6215,7 +6204,7 @@
       <c r="K41" s="35"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
-      <c r="N41" s="495">
+      <c r="N41" s="130">
         <v>50000</v>
       </c>
       <c r="O41" s="493"/>
@@ -6304,7 +6293,7 @@
       <c r="H44" s="155"/>
       <c r="I44" s="184"/>
       <c r="J44" s="156">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K44" s="155"/>
       <c r="L44" s="59">
@@ -7098,7 +7087,7 @@
       <c r="H72" s="77"/>
       <c r="I72" s="179"/>
       <c r="J72" s="45">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K72" s="77"/>
       <c r="L72" s="57">
@@ -7143,23 +7132,23 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A74" s="510" t="s">
+      <c r="A74" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="511"/>
+      <c r="B74" s="510"/>
       <c r="C74" s="272"/>
       <c r="D74" s="272"/>
       <c r="E74" s="273"/>
-      <c r="F74" s="500">
+      <c r="F74" s="499">
         <f>SUM(F4:H73)</f>
         <v>10450000</v>
       </c>
-      <c r="G74" s="501"/>
-      <c r="H74" s="502"/>
+      <c r="G74" s="500"/>
+      <c r="H74" s="501"/>
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="K74" s="246"/>
       <c r="L74" s="244"/>
@@ -7189,11 +7178,11 @@
   <dimension ref="A1:AI66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
       <selection pane="topRight" activeCell="G25" sqref="G25"/>
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -7213,14 +7202,14 @@
     <col min="13" max="13" width="7.5" style="81" customWidth="1"/>
     <col min="14" max="14" width="7.125" style="83" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="82" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="73" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.375" style="73" customWidth="1"/>
     <col min="17" max="17" width="14.625" style="73" customWidth="1"/>
-    <col min="18" max="18" width="6.125" style="73" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6.25" style="99" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="100" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.125" style="73" customWidth="1"/>
+    <col min="19" max="19" width="6.25" style="99" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="100" customWidth="1"/>
     <col min="21" max="21" width="5.75" style="83" customWidth="1"/>
     <col min="22" max="22" width="5.75" style="82" customWidth="1"/>
-    <col min="23" max="24" width="6.75" style="83" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="6.75" style="83" customWidth="1"/>
     <col min="25" max="25" width="7" style="83" customWidth="1"/>
     <col min="26" max="26" width="12.375" style="82" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="30.5" style="73" customWidth="1"/>
@@ -7247,56 +7236,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="503" t="s">
+      <c r="A3" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="508"/>
-      <c r="E3" s="508"/>
-      <c r="F3" s="508"/>
-      <c r="G3" s="508"/>
-      <c r="H3" s="508"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="515" t="s">
+      <c r="B3" s="503"/>
+      <c r="C3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="516"/>
-      <c r="L3" s="516"/>
-      <c r="M3" s="516"/>
-      <c r="N3" s="516"/>
-      <c r="O3" s="516"/>
-      <c r="P3" s="516"/>
-      <c r="Q3" s="517"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="515"/>
+      <c r="M3" s="515"/>
+      <c r="N3" s="515"/>
+      <c r="O3" s="515"/>
+      <c r="P3" s="515"/>
+      <c r="Q3" s="516"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="519"/>
-      <c r="U3" s="522" t="s">
+      <c r="T3" s="518"/>
+      <c r="U3" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="523"/>
-      <c r="W3" s="523"/>
-      <c r="X3" s="523"/>
-      <c r="Y3" s="523"/>
-      <c r="Z3" s="523"/>
-      <c r="AA3" s="524"/>
-      <c r="AB3" s="512" t="s">
+      <c r="V3" s="522"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="522"/>
+      <c r="Y3" s="522"/>
+      <c r="Z3" s="522"/>
+      <c r="AA3" s="523"/>
+      <c r="AB3" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="512"/>
-      <c r="AD3" s="512"/>
-      <c r="AE3" s="512"/>
-      <c r="AG3" s="512" t="s">
+      <c r="AC3" s="511"/>
+      <c r="AD3" s="511"/>
+      <c r="AE3" s="511"/>
+      <c r="AG3" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="505"/>
-      <c r="B4" s="506"/>
+      <c r="A4" s="504"/>
+      <c r="B4" s="505"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -7343,8 +7332,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="521"/>
+      <c r="S4" s="519"/>
+      <c r="T4" s="520"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -7378,7 +7367,7 @@
       <c r="AE4" s="462" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="512"/>
+      <c r="AG4" s="511"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -11279,19 +11268,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="510" t="s">
+      <c r="A66" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="511"/>
+      <c r="B66" s="510"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="500">
+      <c r="F66" s="499">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="501"/>
-      <c r="H66" s="502"/>
+      <c r="G66" s="500"/>
+      <c r="H66" s="501"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -11310,10 +11299,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="513" t="s">
+      <c r="S66" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="514"/>
+      <c r="T66" s="513"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>166</v>
@@ -11419,56 +11408,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="503" t="s">
+      <c r="A3" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="508"/>
-      <c r="E3" s="508"/>
-      <c r="F3" s="508"/>
-      <c r="G3" s="508"/>
-      <c r="H3" s="508"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="515" t="s">
+      <c r="B3" s="503"/>
+      <c r="C3" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="516"/>
-      <c r="L3" s="516"/>
-      <c r="M3" s="516"/>
-      <c r="N3" s="516"/>
-      <c r="O3" s="516"/>
-      <c r="P3" s="516"/>
-      <c r="Q3" s="517"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="515"/>
+      <c r="M3" s="515"/>
+      <c r="N3" s="515"/>
+      <c r="O3" s="515"/>
+      <c r="P3" s="515"/>
+      <c r="Q3" s="516"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="519"/>
-      <c r="U3" s="522" t="s">
+      <c r="T3" s="518"/>
+      <c r="U3" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="523"/>
-      <c r="W3" s="523"/>
-      <c r="X3" s="523"/>
-      <c r="Y3" s="523"/>
-      <c r="Z3" s="523"/>
-      <c r="AA3" s="524"/>
-      <c r="AB3" s="512" t="s">
+      <c r="V3" s="522"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="522"/>
+      <c r="Y3" s="522"/>
+      <c r="Z3" s="522"/>
+      <c r="AA3" s="523"/>
+      <c r="AB3" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="512"/>
-      <c r="AD3" s="512"/>
-      <c r="AE3" s="512"/>
-      <c r="AG3" s="512" t="s">
+      <c r="AC3" s="511"/>
+      <c r="AD3" s="511"/>
+      <c r="AE3" s="511"/>
+      <c r="AG3" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="505"/>
-      <c r="B4" s="506"/>
+      <c r="A4" s="504"/>
+      <c r="B4" s="505"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -11515,8 +11504,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="521"/>
+      <c r="S4" s="519"/>
+      <c r="T4" s="520"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -11550,7 +11539,7 @@
       <c r="AE4" s="448" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="512"/>
+      <c r="AG4" s="511"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -15425,19 +15414,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="510" t="s">
+      <c r="A66" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="511"/>
+      <c r="B66" s="510"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="500">
+      <c r="F66" s="499">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="501"/>
-      <c r="H66" s="502"/>
+      <c r="G66" s="500"/>
+      <c r="H66" s="501"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -15456,10 +15445,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="513" t="s">
+      <c r="S66" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="514"/>
+      <c r="T66" s="513"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>165</v>
@@ -15556,56 +15545,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="503" t="s">
+      <c r="A2" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="515" t="s">
+      <c r="B2" s="503"/>
+      <c r="C2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="507"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="516"/>
-      <c r="L2" s="516"/>
-      <c r="M2" s="516"/>
-      <c r="N2" s="516"/>
-      <c r="O2" s="516"/>
-      <c r="P2" s="516"/>
-      <c r="Q2" s="517"/>
+      <c r="K2" s="515"/>
+      <c r="L2" s="515"/>
+      <c r="M2" s="515"/>
+      <c r="N2" s="515"/>
+      <c r="O2" s="515"/>
+      <c r="P2" s="515"/>
+      <c r="Q2" s="516"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="518" t="s">
+      <c r="S2" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="519"/>
-      <c r="U2" s="522" t="s">
+      <c r="T2" s="518"/>
+      <c r="U2" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="523"/>
-      <c r="W2" s="523"/>
-      <c r="X2" s="523"/>
-      <c r="Y2" s="523"/>
-      <c r="Z2" s="523"/>
-      <c r="AA2" s="524"/>
-      <c r="AB2" s="512" t="s">
+      <c r="V2" s="522"/>
+      <c r="W2" s="522"/>
+      <c r="X2" s="522"/>
+      <c r="Y2" s="522"/>
+      <c r="Z2" s="522"/>
+      <c r="AA2" s="523"/>
+      <c r="AB2" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="512"/>
-      <c r="AD2" s="512"/>
-      <c r="AE2" s="512"/>
-      <c r="AG2" s="512" t="s">
+      <c r="AC2" s="511"/>
+      <c r="AD2" s="511"/>
+      <c r="AE2" s="511"/>
+      <c r="AG2" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="505"/>
-      <c r="B3" s="506"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="505"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -15652,8 +15641,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="520"/>
-      <c r="T3" s="521"/>
+      <c r="S3" s="519"/>
+      <c r="T3" s="520"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -15687,7 +15676,7 @@
       <c r="AE3" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="512"/>
+      <c r="AG3" s="511"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="306" t="s">
@@ -19546,19 +19535,19 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="510" t="s">
+      <c r="A64" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="511"/>
+      <c r="B64" s="510"/>
       <c r="C64" s="272"/>
       <c r="D64" s="272"/>
       <c r="E64" s="273"/>
-      <c r="F64" s="500">
+      <c r="F64" s="499">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="501"/>
-      <c r="H64" s="502"/>
+      <c r="G64" s="500"/>
+      <c r="H64" s="501"/>
       <c r="I64" s="372"/>
       <c r="J64" s="423">
         <f>SUM(J4:J63)</f>
@@ -19577,10 +19566,10 @@
       </c>
       <c r="P64" s="426"/>
       <c r="Q64" s="427"/>
-      <c r="S64" s="513" t="s">
+      <c r="S64" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T64" s="514"/>
+      <c r="T64" s="513"/>
       <c r="U64" s="320">
         <f>SUM(U4:U63)</f>
         <v>162</v>
@@ -19679,56 +19668,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="503" t="s">
+      <c r="A2" s="502" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="507" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="515" t="s">
+      <c r="B2" s="503"/>
+      <c r="C2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="507"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="516"/>
-      <c r="L2" s="516"/>
-      <c r="M2" s="516"/>
-      <c r="N2" s="516"/>
-      <c r="O2" s="516"/>
-      <c r="P2" s="516"/>
-      <c r="Q2" s="517"/>
+      <c r="K2" s="515"/>
+      <c r="L2" s="515"/>
+      <c r="M2" s="515"/>
+      <c r="N2" s="515"/>
+      <c r="O2" s="515"/>
+      <c r="P2" s="515"/>
+      <c r="Q2" s="516"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="518" t="s">
+      <c r="S2" s="517" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="519"/>
-      <c r="U2" s="522" t="s">
+      <c r="T2" s="518"/>
+      <c r="U2" s="521" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="523"/>
-      <c r="W2" s="523"/>
-      <c r="X2" s="523"/>
-      <c r="Y2" s="523"/>
-      <c r="Z2" s="523"/>
-      <c r="AA2" s="524"/>
-      <c r="AB2" s="512" t="s">
+      <c r="V2" s="522"/>
+      <c r="W2" s="522"/>
+      <c r="X2" s="522"/>
+      <c r="Y2" s="522"/>
+      <c r="Z2" s="522"/>
+      <c r="AA2" s="523"/>
+      <c r="AB2" s="511" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="512"/>
-      <c r="AD2" s="512"/>
-      <c r="AE2" s="512"/>
-      <c r="AG2" s="512" t="s">
+      <c r="AC2" s="511"/>
+      <c r="AD2" s="511"/>
+      <c r="AE2" s="511"/>
+      <c r="AG2" s="511" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="505"/>
-      <c r="B3" s="506"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="505"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -19775,8 +19764,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="520"/>
-      <c r="T3" s="521"/>
+      <c r="S3" s="519"/>
+      <c r="T3" s="520"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -19810,7 +19799,7 @@
       <c r="AE3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="512"/>
+      <c r="AG3" s="511"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="305" t="s">
@@ -23601,21 +23590,21 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="510" t="s">
+      <c r="A63" s="509" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="511"/>
+      <c r="B63" s="510"/>
       <c r="C63" s="272"/>
       <c r="D63" s="272"/>
       <c r="E63" s="273"/>
       <c r="F63" s="275">
         <v>41</v>
       </c>
-      <c r="G63" s="525">
+      <c r="G63" s="524">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="526"/>
+      <c r="H63" s="525"/>
       <c r="I63" s="245"/>
       <c r="J63" s="274">
         <f>SUM(J4:J62)</f>
@@ -23634,10 +23623,10 @@
       </c>
       <c r="P63" s="247"/>
       <c r="Q63" s="248"/>
-      <c r="S63" s="513" t="s">
+      <c r="S63" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="T63" s="514"/>
+      <c r="T63" s="513"/>
       <c r="U63" s="320">
         <f>SUM(U4:U62)</f>
         <v>10</v>
